--- a/historic_raw_data/data from isa/Spiny sea star sizes.xlsx
+++ b/historic_raw_data/data from isa/Spiny sea star sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/Desktop/honours_project/pink_sea_star_indian_arm/historic_raw_data/data from isa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6692E-6134-1949-BA5E-6C4001823833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05D5CF-3B96-F149-8AF2-CBD9EFAA13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A3D9EDB8-C9F0-4048-A7AA-C6D7C228C698}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="186">
   <si>
     <t>Size distribution - Moody Inlet</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Boulder Island</t>
   </si>
   <si>
-    <t>White Rock</t>
-  </si>
-  <si>
     <t>N = 31</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>Transect Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">White Rock (not the pier) grey rock? </t>
-  </si>
-  <si>
     <t>Grey Rocks Island</t>
   </si>
   <si>
@@ -605,6 +599,9 @@
   </si>
   <si>
     <t>Observer</t>
+  </si>
+  <si>
+    <t>White Rock (actualy Grey Rock)</t>
   </si>
 </sst>
 </file>
@@ -985,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1ABEE-9A9C-C243-811B-BFEE9BEB4494}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1001,13 +998,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -1022,7 +1019,7 @@
         <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -1043,7 +1040,7 @@
         <v>43</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -1057,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2">
         <v>64</v>
@@ -1108,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1123,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>35</v>
@@ -1159,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1174,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4">
         <v>40</v>
@@ -1210,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -1225,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5">
         <v>9</v>
@@ -1261,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
@@ -1276,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6">
         <v>80</v>
@@ -1298,7 +1295,7 @@
         <v>64</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
@@ -1312,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -1327,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7">
         <v>57</v>
@@ -1345,7 +1342,7 @@
         <v>37</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
@@ -1359,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -1421,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9">
         <v>16</v>
@@ -1453,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -1468,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10">
         <v>35</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5">
         <v>42064</v>
@@ -1504,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11">
         <v>31</v>
@@ -1537,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
@@ -1554,7 +1551,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
@@ -1605,7 +1602,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -1613,22 +1610,22 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1637,14 +1634,14 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1657,53 +1654,53 @@
         <v>8</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="M30" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="7">
         <v>1.0416666666666667</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>47</v>
@@ -1724,7 +1721,7 @@
         <v>106</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>77</v>
@@ -1739,112 +1736,112 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="I37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="J38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
@@ -1852,13 +1849,13 @@
         <v>45297</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="I42" s="4"/>
     </row>
@@ -1867,10 +1864,10 @@
         <v>45304</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -1878,13 +1875,13 @@
         <v>45311</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1896,16 +1893,16 @@
         <v>45318</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1918,13 +1915,13 @@
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="E46" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I46" s="4"/>
     </row>
@@ -1933,10 +1930,10 @@
         <v>45332</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>77</v>
@@ -1950,13 +1947,13 @@
         <v>45338</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1967,10 +1964,10 @@
         <v>45345</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1982,13 +1979,13 @@
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2001,13 +1998,13 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2020,13 +2017,13 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2045,7 +2042,7 @@
         <v>48</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2058,13 +2055,13 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2972,7 +2969,7 @@
         <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3028,7 +3025,7 @@
         <v>6.4</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
         <v>83</v>
@@ -3559,10 +3556,10 @@
         <v>40</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">

--- a/historic_raw_data/data from isa/Spiny sea star sizes.xlsx
+++ b/historic_raw_data/data from isa/Spiny sea star sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/Desktop/honours_project/pink_sea_star_indian_arm/historic_raw_data/data from isa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05D5CF-3B96-F149-8AF2-CBD9EFAA13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B895BE-2B0C-B840-BA8C-86DC97A073B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A3D9EDB8-C9F0-4048-A7AA-C6D7C228C698}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{A3D9EDB8-C9F0-4048-A7AA-C6D7C228C698}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="192">
   <si>
     <t>Size distribution - Moody Inlet</t>
   </si>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>White Rock (actualy Grey Rock)</t>
+  </si>
+  <si>
+    <t>Time: 42 minutes</t>
+  </si>
+  <si>
+    <t>time: 30 minutes</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>42 minutes</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>37 minutes</t>
   </si>
 </sst>
 </file>
@@ -982,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1ABEE-9A9C-C243-811B-BFEE9BEB4494}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A3" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2952,7 +2970,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3537,7 +3555,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3568,6 +3586,9 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -3937,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF73E783-9AF6-BA44-A2FF-8EACC436F975}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C38" sqref="C4:C38"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4290,15 +4311,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2CB9EA-4359-D447-8162-9B636C05F291}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B43"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4320,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4330,8 +4351,11 @@
       <c r="C4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>17.2</v>
       </c>
@@ -4339,7 +4363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>17.5</v>
       </c>
@@ -4350,7 +4374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>19</v>
       </c>
@@ -4358,7 +4382,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>15</v>
       </c>
@@ -4366,7 +4390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>19</v>
       </c>
@@ -4374,7 +4398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>15.2</v>
       </c>
@@ -4382,7 +4406,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>20.5</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>20.2</v>
       </c>
@@ -4417,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>13</v>
       </c>
@@ -4435,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>15</v>
       </c>
@@ -4453,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>19</v>
       </c>
@@ -4471,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>17.5</v>
       </c>
@@ -4808,7 +4832,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4836,6 +4860,12 @@
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5122,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACA228-D9EE-CB4D-A792-EA7D45D2C56B}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView zoomScale="241" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D83"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6228,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F980C4-88A1-FE4F-8DCC-B5CA81468457}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D75"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6289,6 +6319,12 @@
       </c>
       <c r="D6">
         <v>12.3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
